--- a/network/case1/case1_nodeInformation.xlsx
+++ b/network/case1/case1_nodeInformation.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題研究\code\githubrepo\final\network\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A215009-CD87-4968-9668-BAA4391DE04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982D5E1-D87B-48EF-9BA9-751BF0D732A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coordinates" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -415,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -443,7 +456,7 @@
         <v>196</v>
       </c>
       <c r="B2">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -457,10 +470,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -474,10 +487,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B4">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -491,10 +504,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B5">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -508,10 +521,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B6">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -525,10 +538,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -542,10 +555,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="B8">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -559,10 +572,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B9">
-        <v>295</v>
+        <v>528</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -576,10 +589,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="B10">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -593,10 +606,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="B11">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -610,10 +623,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="B12">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -627,10 +640,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -644,10 +657,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>885</v>
+        <v>800</v>
       </c>
       <c r="B14">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -661,10 +674,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>915</v>
+        <v>800</v>
       </c>
       <c r="B15">
-        <v>509</v>
+        <v>378</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -678,10 +691,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B16">
-        <v>575</v>
+        <v>153</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -695,10 +708,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1037</v>
+        <v>951</v>
       </c>
       <c r="B17">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -712,10 +725,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1103</v>
+        <v>951</v>
       </c>
       <c r="B18">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -729,10 +742,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="B19">
-        <v>560</v>
+        <v>228</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -746,10 +759,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1211</v>
+        <v>1102</v>
       </c>
       <c r="B20">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -763,10 +776,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1211</v>
+        <v>1102</v>
       </c>
       <c r="B21">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -780,10 +793,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1386</v>
+        <v>1253</v>
       </c>
       <c r="B22">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -797,10 +810,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1386</v>
+        <v>1253</v>
       </c>
       <c r="B23">
-        <v>555</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -814,10 +827,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1515</v>
+        <v>1404</v>
       </c>
       <c r="B24">
-        <v>421</v>
+        <v>228</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -839,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7513D162-07BC-431B-A771-73F917FD1D8E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -858,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
